--- a/Financial Services/Paylocity.xlsx
+++ b/Financial Services/Paylocity.xlsx
@@ -5,35 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336FA57-C031-2648-9131-75C3A21CD99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD0AEA-B761-F045-9F97-70211895F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29340" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -973,18 +954,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -993,12 +962,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1025,12 +988,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1050,6 +1007,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2315,11 +2296,11 @@
     <v>Powered by Refinitiv</v>
     <v>276.88</v>
     <v>152.01</v>
-    <v>1.0843</v>
-    <v>1.32</v>
-    <v>6.8530000000000006E-3</v>
-    <v>-3.7</v>
-    <v>-1.9078999999999999E-2</v>
+    <v>1.0879000000000001</v>
+    <v>-3.97</v>
+    <v>-2.2875E-2</v>
+    <v>2.9</v>
+    <v>1.7100999999999998E-2</v>
     <v>USD</v>
     <v>Paylocity Holding Corporation is a cloud-based provider of payroll and human capital management (HCM) software solutions. The Company's services are provided in a Software-as-a-Service (SaaS) delivery model utilizing its cloud-based platform. The Company's product suite comprises of payroll, human capital management, workforce management, talent management, benefits, employee experiences, implementation and training services, insights and recommendations and tax and regulatory services, that delivers a unified platform. Its cloud-based platform provides a unified suite of modules using a multi-tenant architecture. Its platform provides self-service functionality for employees and managers combined with integration across all its solutions. The Company's platform also offers an automated data integration with third-party partner systems, which includes 401(k), benefits and insurance provider systems.</v>
     <v>5300</v>
@@ -2327,25 +2308,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1400 American Ln, SCHAUMBURG, IL, 60173-5452 US</v>
-    <v>194.95</v>
+    <v>173.375</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.87021238359</v>
+    <v>45055.88588778906</v>
     <v>0</v>
-    <v>191.19</v>
-    <v>10741810000</v>
+    <v>167.4</v>
+    <v>9465024605</v>
     <v>PAYLOCITY HOLDING CORPORATION</v>
     <v>PAYLOCITY HOLDING CORPORATION</v>
-    <v>192.25</v>
-    <v>113.4134</v>
-    <v>192.61</v>
-    <v>193.93</v>
-    <v>190.23</v>
-    <v>55769720</v>
+    <v>172.13</v>
+    <v>82.687700000000007</v>
+    <v>173.55</v>
+    <v>169.58</v>
+    <v>172.48</v>
+    <v>55814510</v>
     <v>PCTY</v>
     <v>PAYLOCITY HOLDING CORPORATION (XNAS:PCTY)</v>
-    <v>257119</v>
-    <v>413699</v>
+    <v>976023</v>
+    <v>420923</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2933,10 +2914,10 @@
   <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3143,7 +3124,7 @@
         <v>0.40615054208606094</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:S4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:R4" si="0">(F3/E3)-1</f>
         <v>0.40493343270124305</v>
       </c>
       <c r="G4" s="15">
@@ -3412,7 +3393,7 @@
         <v>3.9636308378077197E-2</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:N9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:M9" si="1">C8/C3</f>
         <v>3.2452446638594451E-2</v>
       </c>
       <c r="D9" s="15">
@@ -3628,7 +3609,7 @@
         <v>0.40930503495086618</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:N13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:M13" si="2">C12/C3</f>
         <v>0.38924785828372294</v>
       </c>
       <c r="D13" s="15">
@@ -3828,15 +3809,15 @@
       </c>
       <c r="T16" s="30">
         <f>U101/M3</f>
-        <v>12.598132178347296</v>
+        <v>11.100701934320139</v>
       </c>
       <c r="U16" s="30">
         <f>U101/M28</f>
-        <v>118.33184617248862</v>
-      </c>
-      <c r="V16" s="66">
+        <v>104.26677027220552</v>
+      </c>
+      <c r="V16" s="58">
         <f>U101/M106</f>
-        <v>104.82985097932057</v>
+        <v>92.369639647112791</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3987,7 +3968,7 @@
         <v>-1.0929108485499464</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:N20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:M20" si="3">(F19/E19)-1</f>
         <v>9.1310211946050099</v>
       </c>
       <c r="G20" s="15">
@@ -4365,7 +4346,7 @@
         <v>-12.523500810372772</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:N29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:M29" si="4">(F28/E28)-1</f>
         <v>0.96511954992967652</v>
       </c>
       <c r="G29" s="15">
@@ -4612,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:N35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:M35" si="5">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
@@ -6461,7 +6442,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:N80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:M80" si="6">B79/B3</f>
         <v>4.4828284874886028E-3</v>
       </c>
       <c r="C80" s="15">
@@ -6631,10 +6612,10 @@
       <c r="M83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T83" s="32" t="s">
+      <c r="T83" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="U83" s="33"/>
+      <c r="U83" s="60"/>
     </row>
     <row r="84" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6676,10 +6657,10 @@
       <c r="M84" s="1">
         <v>2553000</v>
       </c>
-      <c r="T84" s="34" t="s">
+      <c r="T84" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="U84" s="35"/>
+      <c r="U84" s="62"/>
     </row>
     <row r="85" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6865,10 +6846,10 @@
       <c r="M88" s="1">
         <v>-18069000</v>
       </c>
-      <c r="T88" s="36" t="s">
+      <c r="T88" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="U88" s="37">
+      <c r="U88" s="33">
         <f>U85/(U86+U87)</f>
         <v>0</v>
       </c>
@@ -6878,7 +6859,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:N89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:M89" si="7">(-1*B88)/B3</f>
         <v>5.0324181947117817E-2</v>
       </c>
       <c r="C89" s="15">
@@ -7021,10 +7002,10 @@
       <c r="M91" s="1">
         <v>-433962000</v>
       </c>
-      <c r="T91" s="36" t="s">
+      <c r="T91" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="U91" s="37">
+      <c r="U91" s="33">
         <f>U89/U90</f>
         <v>-8.5888249578334144E-2</v>
       </c>
@@ -7069,10 +7050,10 @@
       <c r="M92" s="1">
         <v>116848000</v>
       </c>
-      <c r="T92" s="38" t="s">
+      <c r="T92" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="U92" s="39">
+      <c r="U92" s="35">
         <f>U88*(1-U91)</f>
         <v>0</v>
       </c>
@@ -7117,10 +7098,10 @@
       <c r="M93" s="1">
         <v>-37015000</v>
       </c>
-      <c r="T93" s="40" t="s">
+      <c r="T93" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="U93" s="41"/>
+      <c r="U93" s="64"/>
     </row>
     <row r="94" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7165,7 +7146,7 @@
       <c r="T94" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="U94" s="42">
+      <c r="U94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7212,9 +7193,9 @@
       <c r="T95" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="U95" s="43" cm="1">
+      <c r="U95" s="37" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.0843</v>
+        <v>1.0879000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7260,7 +7241,7 @@
       <c r="T96" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="U96" s="42">
+      <c r="U96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7304,12 +7285,12 @@
       <c r="M97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T97" s="38" t="s">
+      <c r="T97" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="U97" s="39">
+      <c r="U97" s="35">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>8.7629115000000007E-2</v>
+        <v>8.7784095000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7352,10 +7333,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="40" t="s">
+      <c r="T98" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="U98" s="41"/>
+      <c r="U98" s="64"/>
     </row>
     <row r="99" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7445,12 +7426,12 @@
       <c r="M100" s="10">
         <v>2172293000</v>
       </c>
-      <c r="T100" s="36" t="s">
+      <c r="T100" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="U100" s="37">
+      <c r="U100" s="33">
         <f>U99/U103</f>
-        <v>7.1647703073610489E-3</v>
+        <v>8.1234114647162209E-3</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7496,9 +7477,9 @@
       <c r="T101" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="U101" s="44" cm="1">
+      <c r="U101" s="38" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10741810000</v>
+        <v>9465024605</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7541,12 +7522,12 @@
       <c r="M102" s="10">
         <v>1847572000</v>
       </c>
-      <c r="T102" s="36" t="s">
+      <c r="T102" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="U102" s="37">
+      <c r="U102" s="33">
         <f>U101/U103</f>
-        <v>0.99283522969263893</v>
+        <v>0.99187658853528382</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7589,12 +7570,12 @@
       <c r="M103" s="1">
         <v>1945881000</v>
       </c>
-      <c r="T103" s="38" t="s">
+      <c r="T103" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="U103" s="45">
+      <c r="U103" s="39">
         <f>U99+U101</f>
-        <v>10819328000</v>
+        <v>9542542605</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7637,10 +7618,10 @@
       <c r="M104" s="11">
         <v>3793453000</v>
       </c>
-      <c r="T104" s="34" t="s">
+      <c r="T104" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="U104" s="35"/>
+      <c r="U104" s="62"/>
     </row>
     <row r="105" spans="1:21" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7668,7 +7649,7 @@
         <v>-4.9995305164319248</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:N105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:M105" si="8">(H106/G106)-1</f>
         <v>2.1695034628477519</v>
       </c>
       <c r="I105" s="15">
@@ -7702,7 +7683,7 @@
       </c>
       <c r="U105" s="26">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>8.7001272518787684E-2</v>
+        <v>8.7070988676257274E-2</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7745,33 +7726,33 @@
       <c r="M106" s="1">
         <v>102469000</v>
       </c>
-      <c r="N106" s="46">
+      <c r="N106" s="40">
         <f>M106*(1+$U$106)</f>
         <v>124840738.10783446</v>
       </c>
-      <c r="O106" s="46">
+      <c r="O106" s="40">
         <f t="shared" ref="O106:R106" si="9">N106*(1+$U$106)</f>
         <v>152096828.22423279</v>
       </c>
-      <c r="P106" s="46">
+      <c r="P106" s="40">
         <f t="shared" si="9"/>
         <v>185303655.73367292</v>
       </c>
-      <c r="Q106" s="46">
+      <c r="Q106" s="40">
         <f t="shared" si="9"/>
         <v>225760426.62533817</v>
       </c>
-      <c r="R106" s="46">
+      <c r="R106" s="40">
         <f t="shared" si="9"/>
         <v>275049998.49170792</v>
       </c>
-      <c r="S106" s="47" t="s">
+      <c r="S106" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="T106" s="48" t="s">
+      <c r="T106" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="U106" s="49">
+      <c r="U106" s="43">
         <f>(SUM(N4:R4)/5)</f>
         <v>0.21832689016028711</v>
       </c>
@@ -7790,151 +7771,151 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
-      <c r="N107" s="47"/>
-      <c r="O107" s="47"/>
-      <c r="P107" s="47"/>
-      <c r="Q107" s="47"/>
-      <c r="R107" s="50">
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="44">
         <f>R106*(1+U107)/(U108-U107)</f>
-        <v>4547104228.6845169</v>
-      </c>
-      <c r="S107" s="51" t="s">
+        <v>4541997066.0438347</v>
+      </c>
+      <c r="S107" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="T107" s="52" t="s">
+      <c r="T107" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="U107" s="53">
+      <c r="U107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="50">
+      <c r="N108" s="44">
         <f t="shared" ref="N108:P108" si="10">N107+N106</f>
         <v>124840738.10783446</v>
       </c>
-      <c r="O108" s="50">
+      <c r="O108" s="44">
         <f t="shared" si="10"/>
         <v>152096828.22423279</v>
       </c>
-      <c r="P108" s="50">
+      <c r="P108" s="44">
         <f t="shared" si="10"/>
         <v>185303655.73367292</v>
       </c>
-      <c r="Q108" s="50">
+      <c r="Q108" s="44">
         <f>Q107+Q106</f>
         <v>225760426.62533817</v>
       </c>
-      <c r="R108" s="50">
+      <c r="R108" s="44">
         <f>R107+R106</f>
-        <v>4822154227.1762247</v>
-      </c>
-      <c r="S108" s="51" t="s">
+        <v>4817047064.5355425</v>
+      </c>
+      <c r="S108" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="T108" s="54" t="s">
+      <c r="T108" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="U108" s="55">
+      <c r="U108" s="49">
         <f>U105</f>
-        <v>8.7001272518787684E-2</v>
+        <v>8.7070988676257274E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="56" t="s">
+      <c r="N109" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="O109" s="57"/>
+      <c r="O109" s="66"/>
     </row>
     <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="58" t="s">
+      <c r="N110" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="O110" s="44">
+      <c r="O110" s="38">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>3727093958.9399571</v>
+        <v>3722617803.2355113</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="58" t="s">
+      <c r="N111" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="O111" s="44">
+      <c r="O111" s="38">
         <f>M40</f>
         <v>144212000</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="58" t="s">
+      <c r="N112" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="O112" s="44">
+      <c r="O112" s="38">
         <f>U99</f>
         <v>77518000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="58" t="s">
+      <c r="N113" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="O113" s="44">
+      <c r="O113" s="38">
         <f>O110+O111-O112</f>
-        <v>3793787958.9399571</v>
+        <v>3789311803.2355113</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="58" t="s">
+      <c r="N114" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="O114" s="59">
+      <c r="O114" s="51">
         <f>M34*(1+(5*S16))</f>
         <v>58611894.143212736</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="60" t="s">
+      <c r="N115" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="O115" s="61">
+      <c r="O115" s="53">
         <f>O113/O114</f>
-        <v>64.72727104963009</v>
+        <v>64.650901640828721</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="58" t="s">
+      <c r="N116" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="O116" s="62" cm="1">
+      <c r="O116" s="54" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>193.93</v>
+        <v>169.58</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="63" t="s">
+      <c r="N117" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="O117" s="64">
+      <c r="O117" s="56">
         <f>O115/O116-1</f>
-        <v>-0.66623384185205958</v>
+        <v>-0.61875868828382641</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="63" t="s">
+      <c r="N118" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="O118" s="65" t="str">
+      <c r="O118" s="57" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N109:O109"/>
     <mergeCell ref="T83:U83"/>
     <mergeCell ref="T84:U84"/>
     <mergeCell ref="T93:U93"/>
     <mergeCell ref="T98:U98"/>
     <mergeCell ref="T104:U104"/>
-    <mergeCell ref="N109:O109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/PCTY" display="ROIC.AI | PCTY" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Financial Services/Paylocity.xlsx
+++ b/Financial Services/Paylocity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD0AEA-B761-F045-9F97-70211895F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE956964-89FF-F345-B063-D813F907118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,12 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2295,12 +2295,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>276.88</v>
-    <v>152.01</v>
-    <v>1.0879000000000001</v>
-    <v>-3.97</v>
-    <v>-2.2875E-2</v>
-    <v>2.9</v>
-    <v>1.7100999999999998E-2</v>
+    <v>160</v>
+    <v>1.0799000000000001</v>
+    <v>0.56999999999999995</v>
+    <v>2.8000000000000004E-3</v>
     <v>USD</v>
     <v>Paylocity Holding Corporation is a cloud-based provider of payroll and human capital management (HCM) software solutions. The Company's services are provided in a Software-as-a-Service (SaaS) delivery model utilizing its cloud-based platform. The Company's product suite comprises of payroll, human capital management, workforce management, talent management, benefits, employee experiences, implementation and training services, insights and recommendations and tax and regulatory services, that delivers a unified platform. Its cloud-based platform provides a unified suite of modules using a multi-tenant architecture. Its platform provides self-service functionality for employees and managers combined with integration across all its solutions. The Company's platform also offers an automated data integration with third-party partner systems, which includes 401(k), benefits and insurance provider systems.</v>
     <v>5300</v>
@@ -2308,25 +2306,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1400 American Ln, SCHAUMBURG, IL, 60173-5452 US</v>
-    <v>173.375</v>
+    <v>207.46</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45055.88588778906</v>
+    <v>45119.868747846878</v>
     <v>0</v>
-    <v>167.4</v>
-    <v>9465024605</v>
+    <v>201.29</v>
+    <v>11395090361</v>
     <v>PAYLOCITY HOLDING CORPORATION</v>
     <v>PAYLOCITY HOLDING CORPORATION</v>
-    <v>172.13</v>
-    <v>82.687700000000007</v>
-    <v>173.55</v>
-    <v>169.58</v>
-    <v>172.48</v>
+    <v>206.61</v>
+    <v>97.271900000000002</v>
+    <v>203.59</v>
+    <v>204.16</v>
     <v>55814510</v>
     <v>PCTY</v>
     <v>PAYLOCITY HOLDING CORPORATION (XNAS:PCTY)</v>
-    <v>976023</v>
-    <v>420923</v>
+    <v>517266</v>
+    <v>390862</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2358,8 +2355,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2380,7 +2375,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2397,7 +2391,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2408,16 +2402,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2483,19 +2474,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2540,9 +2525,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2550,9 +2532,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2914,10 +2893,10 @@
   <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O102" sqref="O102"/>
+      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3809,15 +3788,15 @@
       </c>
       <c r="T16" s="30">
         <f>U101/M3</f>
-        <v>11.100701934320139</v>
+        <v>13.364307742558209</v>
       </c>
       <c r="U16" s="30">
         <f>U101/M28</f>
-        <v>104.26677027220552</v>
+        <v>125.52838671689966</v>
       </c>
       <c r="V16" s="58">
         <f>U101/M106</f>
-        <v>92.369639647112791</v>
+        <v>111.20524608418155</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6612,10 +6591,10 @@
       <c r="M83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T83" s="59" t="s">
+      <c r="T83" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="U83" s="60"/>
+      <c r="U83" s="62"/>
     </row>
     <row r="84" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6657,10 +6636,10 @@
       <c r="M84" s="1">
         <v>2553000</v>
       </c>
-      <c r="T84" s="61" t="s">
+      <c r="T84" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="U84" s="62"/>
+      <c r="U84" s="64"/>
     </row>
     <row r="85" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7098,10 +7077,10 @@
       <c r="M93" s="1">
         <v>-37015000</v>
       </c>
-      <c r="T93" s="63" t="s">
+      <c r="T93" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="U93" s="64"/>
+      <c r="U93" s="66"/>
     </row>
     <row r="94" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7195,7 +7174,7 @@
       </c>
       <c r="U95" s="37" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.0879000000000001</v>
+        <v>1.0799000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7290,7 +7269,7 @@
       </c>
       <c r="U97" s="35">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>8.7784095000000006E-2</v>
+        <v>8.7439695000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7333,10 +7312,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="63" t="s">
+      <c r="T98" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="U98" s="64"/>
+      <c r="U98" s="66"/>
     </row>
     <row r="99" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7431,7 +7410,7 @@
       </c>
       <c r="U100" s="33">
         <f>U99/U103</f>
-        <v>8.1234114647162209E-3</v>
+        <v>6.75678952517152E-3</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7479,7 +7458,7 @@
       </c>
       <c r="U101" s="38" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9465024605</v>
+        <v>11395090361</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7527,7 +7506,7 @@
       </c>
       <c r="U102" s="33">
         <f>U101/U103</f>
-        <v>0.99187658853528382</v>
+        <v>0.99324321047482844</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7575,7 +7554,7 @@
       </c>
       <c r="U103" s="39">
         <f>U99+U101</f>
-        <v>9542542605</v>
+        <v>11472608361</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7618,10 +7597,10 @@
       <c r="M104" s="11">
         <v>3793453000</v>
       </c>
-      <c r="T104" s="61" t="s">
+      <c r="T104" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="U104" s="62"/>
+      <c r="U104" s="64"/>
     </row>
     <row r="105" spans="1:21" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7683,7 +7662,7 @@
       </c>
       <c r="U105" s="26">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>8.7070988676257274E-2</v>
+        <v>8.6848883384739811E-2</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7777,7 +7756,7 @@
       <c r="Q107" s="41"/>
       <c r="R107" s="44">
         <f>R106*(1+U107)/(U108-U107)</f>
-        <v>4541997066.0438347</v>
+        <v>4558307814.5524168</v>
       </c>
       <c r="S107" s="45" t="s">
         <v>144</v>
@@ -7808,7 +7787,7 @@
       </c>
       <c r="R108" s="44">
         <f>R107+R106</f>
-        <v>4817047064.5355425</v>
+        <v>4833357813.0441246</v>
       </c>
       <c r="S108" s="45" t="s">
         <v>140</v>
@@ -7818,14 +7797,14 @@
       </c>
       <c r="U108" s="49">
         <f>U105</f>
-        <v>8.7070988676257274E-2</v>
+        <v>8.6848883384739811E-2</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="65" t="s">
+      <c r="N109" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="O109" s="66"/>
+      <c r="O109" s="60"/>
     </row>
     <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="N110" s="50" t="s">
@@ -7833,7 +7812,7 @@
       </c>
       <c r="O110" s="38">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>3722617803.2355113</v>
+        <v>3736913571.6965895</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7860,7 +7839,7 @@
       </c>
       <c r="O113" s="38">
         <f>O110+O111-O112</f>
-        <v>3789311803.2355113</v>
+        <v>3803607571.6965895</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7878,7 +7857,7 @@
       </c>
       <c r="O115" s="53">
         <f>O113/O114</f>
-        <v>64.650901640828721</v>
+        <v>64.894807228082868</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7887,7 +7866,7 @@
       </c>
       <c r="O116" s="54" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>169.58</v>
+        <v>204.16</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7896,7 +7875,7 @@
       </c>
       <c r="O117" s="56">
         <f>O115/O116-1</f>
-        <v>-0.61875868828382641</v>
+        <v>-0.68213750378094207</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/Paylocity.xlsx
+++ b/Financial Services/Paylocity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE956964-89FF-F345-B063-D813F907118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EEE823-9999-034B-BC77-7964A486DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2893,10 +2893,10 @@
   <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
+      <selection pane="bottomRight" activeCell="N124" sqref="N124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
